--- a/非受控文档/绩效评价/第八周绩效评价.xlsx
+++ b/非受控文档/绩效评价/第八周绩效评价.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28315"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27809"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuqi/Desktop/PRD2018/绩效评价/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cmy/Documents/GitHub/SE-Education-Assistant-System/非受控文档/绩效评价/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16480"/>
   </bookViews>
   <sheets>
     <sheet name="20180426" sheetId="4" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="54">
   <si>
     <t>绩效评价</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -204,6 +204,477 @@
   </si>
   <si>
     <t>未及时回复群消息2次 扣0.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>截止时间：</t>
+    <rPh sb="0" eb="1">
+      <t>jie zhi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shi jian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有特殊标注的任务的截止时间统一为每周日中午12:00</t>
+    <rPh sb="0" eb="1">
+      <t>mei y</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>te shu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>biao zhu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>d</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ren wu</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>d</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>jie zhi</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>shi jian</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>tong yi</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>mei zhou</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ri</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>zhong wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绩效评价规则：</t>
+    <rPh sb="0" eb="1">
+      <t>ji xiao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ping jia</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>gui ze</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.每项任务有四个指标，一个指标未达标，视情节严重与否扣除0.02-0.05分</t>
+    <rPh sb="2" eb="3">
+      <t>mei xinag ren</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ren wu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>you</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>si ge</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>zhi biao</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>yi ge</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>zhi biao</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>wei da biao</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>shi li</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>yu fou</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>kou chu</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>fen</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.若某组员在规定时间内几乎未完成任何指定任务，或在第一条规则内扣分超过0.4分则改组员本周绩效为0分</t>
+    <rPh sb="2" eb="3">
+      <t>ruo</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>mou</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zu yuan</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>gui ding shi jian</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>nei</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ji hu</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>wan cheng</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ren he</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>zhi ding</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ren wu</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>huo z</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>di yi</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>tiao</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>gui ze</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>nei</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>kou fen</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>chao guo</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>fen</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>ze</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>gai cheng yuan</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>zu yuan</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>ben zhou</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>ji xiao</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>fen</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.小组未说明原因或未请假，会议迟到，本周绩效扣除0.05分，并罚款与迟到分钟对等的人名币（例如迟到5分钟罚款5元，迟到60分钟罚款60元）作为团建基金</t>
+    <rPh sb="2" eb="3">
+      <t>xiao zu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shuo ming</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>yuan yin</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>huo zhe</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>qing jia</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>hui yi</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>chi dao</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ben zhou</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ji xiao</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>kou chu</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>fen</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>bing fa kuan</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>yu</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>chi dao</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>fen zhong</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>dui deng</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>d</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>ren ming bi</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>li ru</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>chi dao</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>fen zhong</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>fa kuan</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>yuan</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>chi dao</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>fen z</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>fa kuan</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>yuan</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>zuo wei</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>tuan jian ji jin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.小组未说明原因或未请假，会议未到，本周绩效扣除0.1分，并罚款与会议时间分钟数对等的人名币。作为团建基金。</t>
+    <rPh sb="16" eb="17">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>dao</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>hui yi</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>shi jian</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>fen zhong</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.小组微信群（组名为G12💅）内，组长发布@所有人 消息时，无特殊情况超过15分钟未回复，一次扣除0.02分，可无限叠加。</t>
+    <rPh sb="2" eb="3">
+      <t>xiao zu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>wei xin qun</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zu ming</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>nei</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>zu zhang</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>fa bu</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>suo you ren</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>xiao xi</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>wu</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>te shu</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>qing kuang</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>chao guo</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>fen zhong</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>hui fu</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>yi ci</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>kou chu</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>fen</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>ke wu xian die jia</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.小组成员在本周工作成果优秀（具体表现为课堂上被杨老师表扬，提交任务近乎完美达到所有指标的情况），视情况本周绩效加0.02-0.05的分。</t>
+    <rPh sb="2" eb="3">
+      <t>xiao zu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>cheng yuan</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ben zhou</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>gong zuo</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>cheng guo</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>you xiu</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ju ti</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>biao xian</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ke tang</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>shang</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>bei</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>yang</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>lao shi</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>biao yang</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ti jiao</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ren wu</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>jin hu wan mei</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>da dao</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>suo you</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>zhi biao</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>d</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>shi li</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>qing kuang</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>ben zhou ji xiao</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>jia fen</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>d</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>fen shu</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -211,7 +682,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -290,6 +761,20 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -420,7 +905,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -439,9 +924,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
@@ -454,23 +936,32 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -798,10 +1289,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I41"/>
+  <dimension ref="A2:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="161" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="161" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36:I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -818,14 +1309,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
     </row>
     <row r="3" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -860,7 +1351,7 @@
       <c r="A4" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="5" t="s">
@@ -882,7 +1373,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="13"/>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -901,7 +1392,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="13"/>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>21</v>
       </c>
       <c r="C6" s="5" t="s">
@@ -920,7 +1411,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="13"/>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>22</v>
       </c>
       <c r="C7" s="5" t="s">
@@ -939,7 +1430,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="13"/>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>23</v>
       </c>
       <c r="C8" s="5" t="s">
@@ -958,7 +1449,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="13"/>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>40</v>
       </c>
       <c r="C9" s="5" t="s">
@@ -977,7 +1468,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="13"/>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="5" t="s">
@@ -996,7 +1487,7 @@
     </row>
     <row r="11" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14"/>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="8" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="5" t="s">
@@ -1017,7 +1508,7 @@
       <c r="A12" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="5" t="s">
@@ -1036,13 +1527,13 @@
       <c r="H12">
         <v>0.92</v>
       </c>
-      <c r="I12" s="16" t="s">
+      <c r="I12" s="11" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="13"/>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>26</v>
       </c>
       <c r="C13" s="5" t="s">
@@ -1060,7 +1551,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="13"/>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="7" t="s">
         <v>27</v>
       </c>
       <c r="C14" s="5" t="s">
@@ -1079,7 +1570,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="13"/>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>28</v>
       </c>
       <c r="C15" s="5" t="s">
@@ -1098,7 +1589,7 @@
     </row>
     <row r="16" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14"/>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="8" t="s">
         <v>29</v>
       </c>
       <c r="C16" s="5" t="s">
@@ -1119,7 +1610,7 @@
       <c r="A17" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C17" s="5" t="s">
@@ -1138,13 +1629,13 @@
       <c r="H17">
         <v>0.9</v>
       </c>
-      <c r="I17" s="15" t="s">
+      <c r="I17" s="10" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="13"/>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="5" t="s">
@@ -1162,7 +1653,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="13"/>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="7" t="s">
         <v>31</v>
       </c>
       <c r="C19" s="5" t="s">
@@ -1180,7 +1671,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="13"/>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="7" t="s">
         <v>32</v>
       </c>
       <c r="C20" s="5" t="s">
@@ -1198,7 +1689,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="13"/>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="7" t="s">
         <v>33</v>
       </c>
       <c r="C21" s="5" t="s">
@@ -1216,7 +1707,7 @@
     </row>
     <row r="22" spans="1:9" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14"/>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="8" t="s">
         <v>29</v>
       </c>
       <c r="C22" s="5" t="s">
@@ -1236,7 +1727,7 @@
       <c r="A23" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="9" t="s">
         <v>34</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -1254,13 +1745,13 @@
       <c r="H23">
         <v>0.96</v>
       </c>
-      <c r="I23" s="15" t="s">
+      <c r="I23" s="10" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="13"/>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="7" t="s">
         <v>26</v>
       </c>
       <c r="C24" s="5" t="s">
@@ -1275,11 +1766,11 @@
       <c r="F24" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I24" s="15"/>
+      <c r="I24" s="10"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="13"/>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="7" t="s">
         <v>35</v>
       </c>
       <c r="C25" s="5" t="s">
@@ -1297,7 +1788,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="13"/>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="9" t="s">
         <v>36</v>
       </c>
       <c r="C26" s="5" t="s">
@@ -1315,7 +1806,7 @@
     </row>
     <row r="27" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="14"/>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="8" t="s">
         <v>29</v>
       </c>
       <c r="C27" s="5" t="s">
@@ -1335,7 +1826,7 @@
       <c r="A28" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C28" s="5" t="s">
@@ -1353,13 +1844,13 @@
       <c r="H28">
         <v>0.95</v>
       </c>
-      <c r="I28" s="16" t="s">
+      <c r="I28" s="11" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="13"/>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="7" t="s">
         <v>37</v>
       </c>
       <c r="C29" s="5" t="s">
@@ -1377,7 +1868,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="13"/>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="7" t="s">
         <v>21</v>
       </c>
       <c r="C30" s="5" t="s">
@@ -1395,7 +1886,7 @@
     </row>
     <row r="31" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="13"/>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="7" t="s">
         <v>38</v>
       </c>
       <c r="C31" s="5" t="s">
@@ -1413,7 +1904,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="13"/>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="7" t="s">
         <v>39</v>
       </c>
       <c r="C32" s="5" t="s">
@@ -1429,9 +1920,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="13"/>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="7" t="s">
         <v>29</v>
       </c>
       <c r="C33" s="5" t="s">
@@ -1447,60 +1938,106 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="14"/>
-      <c r="B34" s="9"/>
+      <c r="B34" s="8"/>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A36" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>46</v>
+      </c>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B37" s="17"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A38" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>49</v>
+      </c>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>50</v>
+      </c>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>51</v>
+      </c>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>52</v>
+      </c>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>53</v>
+      </c>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="C2:H2"/>
     <mergeCell ref="A28:A34"/>
     <mergeCell ref="A23:A27"/>
     <mergeCell ref="A17:A22"/>
     <mergeCell ref="A12:A16"/>
     <mergeCell ref="A4:A11"/>
-    <mergeCell ref="C2:H2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/非受控文档/绩效评价/第八周绩效评价.xlsx
+++ b/非受控文档/绩效评价/第八周绩效评价.xlsx
@@ -401,125 +401,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3.小组未说明原因或未请假，会议迟到，本周绩效扣除0.05分，并罚款与迟到分钟对等的人名币（例如迟到5分钟罚款5元，迟到60分钟罚款60元）作为团建基金</t>
-    <rPh sb="2" eb="3">
-      <t>xiao zu</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>wei</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>shuo ming</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>yuan yin</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>huo zhe</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>wei</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>qing jia</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>hui yi</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>chi dao</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>ben zhou</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>ji xiao</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>kou chu</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>fen</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>bing fa kuan</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>yu</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>chi dao</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>fen zhong</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>dui deng</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>d</t>
-    </rPh>
-    <rPh sb="42" eb="43">
-      <t>ren ming bi</t>
-    </rPh>
-    <rPh sb="46" eb="47">
-      <t>li ru</t>
-    </rPh>
-    <rPh sb="48" eb="49">
-      <t>chi dao</t>
-    </rPh>
-    <rPh sb="51" eb="52">
-      <t>fen zhong</t>
-    </rPh>
-    <rPh sb="53" eb="54">
-      <t>fa kuan</t>
-    </rPh>
-    <rPh sb="56" eb="57">
-      <t>yuan</t>
-    </rPh>
-    <rPh sb="58" eb="59">
-      <t>chi dao</t>
-    </rPh>
-    <rPh sb="62" eb="63">
-      <t>fen z</t>
-    </rPh>
-    <rPh sb="64" eb="65">
-      <t>fa kuan</t>
-    </rPh>
-    <rPh sb="68" eb="69">
-      <t>yuan</t>
-    </rPh>
-    <rPh sb="70" eb="71">
-      <t>zuo wei</t>
-    </rPh>
-    <rPh sb="72" eb="73">
-      <t>tuan jian ji jin</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.小组未说明原因或未请假，会议未到，本周绩效扣除0.1分，并罚款与会议时间分钟数对等的人名币。作为团建基金。</t>
-    <rPh sb="16" eb="17">
-      <t>wei</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>dao</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>hui yi</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>shi jian</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>fen zhong</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>shu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>5.小组微信群（组名为G12💅）内，组长发布@所有人 消息时，无特殊情况超过15分钟未回复，一次扣除0.02分，可无限叠加。</t>
     <rPh sb="2" eb="3">
       <t>xiao zu</t>
@@ -674,6 +555,128 @@
     </rPh>
     <rPh sb="68" eb="69">
       <t>fen shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.小组未说明原因或未请假，会议迟到，本周绩效扣除0.05分，并罚款与迟到分钟对等的人民币（例如迟到5分钟罚款5元，迟到60分钟罚款60元）作为团建基金</t>
+    <rPh sb="2" eb="3">
+      <t>xiao zu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shuo ming</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>yuan yin</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>huo zhe</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>qing jia</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>hui yi</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>chi dao</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ben zhou</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ji xiao</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>kou chu</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>fen</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>bing fa kuan</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>yu</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>chi dao</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>fen zhong</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>dui deng</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>d</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>ren m</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>li ru</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>chi dao</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>fen zhong</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>fa kuan</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>yuan</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>chi dao</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>fen z</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>fa kuan</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>yuan</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>zuo wei</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>tuan jian ji jin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.小组未说明原因或未请假，会议未到，本周绩效扣除0.1分，并罚款与会议时间分钟数对等的人民币。作为团建基金。</t>
+    <rPh sb="16" eb="17">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>dao</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>hui yi</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>shi jian</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>fen zhong</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>shu</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>ren min</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -942,6 +945,18 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
@@ -950,18 +965,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1292,7 +1295,7 @@
   <dimension ref="A2:I43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" zoomScale="161" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36:I43"/>
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1348,7 +1351,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="16" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="6" t="s">
@@ -1372,7 +1375,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="13"/>
+      <c r="A5" s="17"/>
       <c r="B5" s="7" t="s">
         <v>10</v>
       </c>
@@ -1391,7 +1394,7 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="13"/>
+      <c r="A6" s="17"/>
       <c r="B6" s="7" t="s">
         <v>21</v>
       </c>
@@ -1410,7 +1413,7 @@
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="13"/>
+      <c r="A7" s="17"/>
       <c r="B7" s="7" t="s">
         <v>22</v>
       </c>
@@ -1429,7 +1432,7 @@
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="13"/>
+      <c r="A8" s="17"/>
       <c r="B8" s="7" t="s">
         <v>23</v>
       </c>
@@ -1448,7 +1451,7 @@
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="13"/>
+      <c r="A9" s="17"/>
       <c r="B9" s="7" t="s">
         <v>40</v>
       </c>
@@ -1467,7 +1470,7 @@
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="13"/>
+      <c r="A10" s="17"/>
       <c r="B10" s="7" t="s">
         <v>24</v>
       </c>
@@ -1486,7 +1489,7 @@
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
+      <c r="A11" s="18"/>
       <c r="B11" s="8" t="s">
         <v>25</v>
       </c>
@@ -1505,7 +1508,7 @@
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="16" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="7" t="s">
@@ -1532,7 +1535,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="13"/>
+      <c r="A13" s="17"/>
       <c r="B13" s="7" t="s">
         <v>26</v>
       </c>
@@ -1550,7 +1553,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="13"/>
+      <c r="A14" s="17"/>
       <c r="B14" s="7" t="s">
         <v>27</v>
       </c>
@@ -1569,7 +1572,7 @@
       <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="13"/>
+      <c r="A15" s="17"/>
       <c r="B15" s="7" t="s">
         <v>28</v>
       </c>
@@ -1588,7 +1591,7 @@
       <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
+      <c r="A16" s="18"/>
       <c r="B16" s="8" t="s">
         <v>29</v>
       </c>
@@ -1607,7 +1610,7 @@
       <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="16" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="7" t="s">
@@ -1634,7 +1637,7 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="13"/>
+      <c r="A18" s="17"/>
       <c r="B18" s="7" t="s">
         <v>18</v>
       </c>
@@ -1652,7 +1655,7 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="13"/>
+      <c r="A19" s="17"/>
       <c r="B19" s="7" t="s">
         <v>31</v>
       </c>
@@ -1670,7 +1673,7 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="13"/>
+      <c r="A20" s="17"/>
       <c r="B20" s="7" t="s">
         <v>32</v>
       </c>
@@ -1688,7 +1691,7 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="13"/>
+      <c r="A21" s="17"/>
       <c r="B21" s="7" t="s">
         <v>33</v>
       </c>
@@ -1706,7 +1709,7 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
+      <c r="A22" s="18"/>
       <c r="B22" s="8" t="s">
         <v>29</v>
       </c>
@@ -1724,7 +1727,7 @@
       </c>
     </row>
     <row r="23" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="16" t="s">
         <v>12</v>
       </c>
       <c r="B23" s="9" t="s">
@@ -1750,7 +1753,7 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="13"/>
+      <c r="A24" s="17"/>
       <c r="B24" s="7" t="s">
         <v>26</v>
       </c>
@@ -1769,7 +1772,7 @@
       <c r="I24" s="10"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="13"/>
+      <c r="A25" s="17"/>
       <c r="B25" s="7" t="s">
         <v>35</v>
       </c>
@@ -1787,7 +1790,7 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="13"/>
+      <c r="A26" s="17"/>
       <c r="B26" s="9" t="s">
         <v>36</v>
       </c>
@@ -1805,7 +1808,7 @@
       </c>
     </row>
     <row r="27" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
+      <c r="A27" s="18"/>
       <c r="B27" s="8" t="s">
         <v>29</v>
       </c>
@@ -1823,7 +1826,7 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="16" t="s">
         <v>19</v>
       </c>
       <c r="B28" s="7" t="s">
@@ -1849,7 +1852,7 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="13"/>
+      <c r="A29" s="17"/>
       <c r="B29" s="7" t="s">
         <v>37</v>
       </c>
@@ -1867,7 +1870,7 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="13"/>
+      <c r="A30" s="17"/>
       <c r="B30" s="7" t="s">
         <v>21</v>
       </c>
@@ -1885,7 +1888,7 @@
       </c>
     </row>
     <row r="31" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="13"/>
+      <c r="A31" s="17"/>
       <c r="B31" s="7" t="s">
         <v>38</v>
       </c>
@@ -1903,7 +1906,7 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="13"/>
+      <c r="A32" s="17"/>
       <c r="B32" s="7" t="s">
         <v>39</v>
       </c>
@@ -1921,7 +1924,7 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="13"/>
+      <c r="A33" s="17"/>
       <c r="B33" s="7" t="s">
         <v>29</v>
       </c>
@@ -1939,7 +1942,7 @@
       </c>
     </row>
     <row r="34" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="14"/>
+      <c r="A34" s="18"/>
       <c r="B34" s="8"/>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
@@ -1953,10 +1956,10 @@
       <c r="F35" s="5"/>
     </row>
     <row r="36" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A36" s="16" t="s">
+      <c r="A36" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B36" s="17" t="s">
+      <c r="B36" s="13" t="s">
         <v>46</v>
       </c>
       <c r="C36" s="5"/>
@@ -1965,17 +1968,17 @@
       <c r="F36" s="5"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B37" s="17"/>
+      <c r="B37" s="13"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
     </row>
     <row r="38" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A38" s="16" t="s">
+      <c r="A38" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B38" s="18" t="s">
+      <c r="B38" s="14" t="s">
         <v>48</v>
       </c>
       <c r="C38" s="5"/>
@@ -1996,7 +1999,7 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
@@ -2005,7 +2008,7 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
@@ -2014,7 +2017,7 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
@@ -2023,7 +2026,7 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
